--- a/TCs/1712730_Testcase.xlsx
+++ b/TCs/1712730_Testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KCPM\Project\Test Document\KCPM-Reports\TCs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C52ED2-CEE5-492A-BE8E-002498C95291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E54087-BCD0-42E9-9212-2290497F225F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="613" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="613" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Function list" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="679">
   <si>
     <t>No.</t>
   </si>
@@ -3009,6 +3009,47 @@
   </si>
   <si>
     <t>Google Drive</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Kiểm tra số lượng request login vào trang web mà hệ thống có thể xử lý</t>
+  </si>
+  <si>
+    <t>1. Mở Apache Jmeter
+2. Tạo 1 Thread Group
+3. Nhập Server name: https://testing-app3.herokuapp.com/
+4. Tạo HTTP Request với phương thức Post tới trang Path là "login.html"
+5. Tạo một Listener Graph Result để Jmeter biểu diễn kết quả
+6. Run script</t>
+  </si>
+  <si>
+    <t>1. Hệ thống có thể xử lý hơn 100.000 request đăng nhập trên 1 phút</t>
+  </si>
+  <si>
+    <t>1. Hệ thống chỉ xử lý được khoảng 33.507 request trên 1  phút</t>
+  </si>
+  <si>
+    <t>F016-T024</t>
+  </si>
+  <si>
+    <t>B039</t>
+  </si>
+  <si>
+    <t>Hệ thống không xử lý được nhiều request đăng nhập như mong đợi</t>
+  </si>
+  <si>
+    <t>1. Mở Apache Jmeter
+2. Tạo 1 Thread Group
+3. Nhập Server name: https://testing-app3.herokuapp.com/
+4. Tạo HTTP Request với phương thức Post tới trang Path là "login.html"
+5. Tạo một Listener Graph Result để Jmeter biểu diễn kết quả
+6. Run script
+Expect:
+1. Hệ thống có thể xử lý hơn 100.000 request đăng nhập trên 1 phút
+Actual:
+1. Hệ thống chỉ xử lý được khoảng 33.507 request trên 1  phút</t>
   </si>
 </sst>
 </file>
@@ -3735,9 +3776,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3750,6 +3788,10 @@
     </xf>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3779,9 +3821,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4726,7 +4765,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A2:AA110" headerRowCount="0" headerRowDxfId="45" dataDxfId="44" totalsRowDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A2:AA111" headerRowCount="0" headerRowDxfId="45" dataDxfId="44" totalsRowDxfId="43">
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1" dataDxfId="42"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Column2" dataDxfId="41"/>
@@ -5026,7 +5065,7 @@
   <dimension ref="A1:E997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9135,10 +9174,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA1006"/>
+  <dimension ref="A1:AA1007"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="A87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N88" sqref="N88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9169,22 +9208,22 @@
       <c r="F1" s="58"/>
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
-      <c r="I1" s="93" t="s">
+      <c r="I1" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="96" t="s">
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="96"/>
     </row>
     <row r="2" spans="1:27" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="71" t="s">
@@ -13700,43 +13739,43 @@
       <c r="Z87" s="13"/>
       <c r="AA87" s="13"/>
     </row>
-    <row r="88" spans="1:27" ht="171.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" s="92" customFormat="1" ht="129" x14ac:dyDescent="0.25">
       <c r="A88" s="60">
         <v>85</v>
       </c>
-      <c r="B88" s="61" t="s">
-        <v>335</v>
-      </c>
-      <c r="C88" s="61" t="s">
-        <v>17</v>
+      <c r="B88" s="60" t="s">
+        <v>675</v>
+      </c>
+      <c r="C88" s="60" t="s">
+        <v>16</v>
       </c>
       <c r="D88" s="61" t="s">
-        <v>327</v>
+        <v>670</v>
       </c>
       <c r="E88" s="61" t="s">
-        <v>440</v>
-      </c>
-      <c r="F88" s="61" t="s">
-        <v>443</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="F88" s="60"/>
       <c r="G88" s="61" t="s">
-        <v>441</v>
+        <v>672</v>
       </c>
       <c r="H88" s="61" t="s">
-        <v>454</v>
+        <v>673</v>
       </c>
       <c r="I88" s="61" t="s">
-        <v>454</v>
-      </c>
-      <c r="J88" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="K88" s="60"/>
+        <v>674</v>
+      </c>
+      <c r="J88" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="K88" s="60" t="s">
+        <v>676</v>
+      </c>
       <c r="L88" s="60" t="s">
         <v>50</v>
       </c>
       <c r="M88" s="62">
-        <v>44204</v>
+        <v>44206</v>
       </c>
       <c r="N88" s="60"/>
       <c r="O88" s="60"/>
@@ -13753,12 +13792,12 @@
       <c r="Z88" s="13"/>
       <c r="AA88" s="13"/>
     </row>
-    <row r="89" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" ht="171.75" x14ac:dyDescent="0.25">
       <c r="A89" s="60">
         <v>86</v>
       </c>
       <c r="B89" s="61" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C89" s="61" t="s">
         <v>17</v>
@@ -13767,19 +13806,19 @@
         <v>327</v>
       </c>
       <c r="E89" s="61" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F89" s="61" t="s">
-        <v>121</v>
+        <v>443</v>
       </c>
       <c r="G89" s="61" t="s">
         <v>441</v>
       </c>
       <c r="H89" s="61" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="I89" s="61" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="J89" s="61" t="s">
         <v>49</v>
@@ -13806,12 +13845,12 @@
       <c r="Z89" s="13"/>
       <c r="AA89" s="13"/>
     </row>
-    <row r="90" spans="1:27" ht="171.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A90" s="60">
         <v>87</v>
       </c>
       <c r="B90" s="61" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C90" s="61" t="s">
         <v>17</v>
@@ -13820,19 +13859,19 @@
         <v>327</v>
       </c>
       <c r="E90" s="61" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="F90" s="61" t="s">
-        <v>443</v>
+        <v>121</v>
       </c>
       <c r="G90" s="61" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="H90" s="61" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="I90" s="61" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J90" s="61" t="s">
         <v>49</v>
@@ -13859,12 +13898,12 @@
       <c r="Z90" s="13"/>
       <c r="AA90" s="13"/>
     </row>
-    <row r="91" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" ht="171.75" x14ac:dyDescent="0.25">
       <c r="A91" s="60">
         <v>88</v>
       </c>
       <c r="B91" s="61" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C91" s="61" t="s">
         <v>17</v>
@@ -13873,19 +13912,19 @@
         <v>327</v>
       </c>
       <c r="E91" s="61" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F91" s="61" t="s">
-        <v>121</v>
+        <v>443</v>
       </c>
       <c r="G91" s="61" t="s">
         <v>456</v>
       </c>
       <c r="H91" s="61" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I91" s="61" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J91" s="61" t="s">
         <v>49</v>
@@ -13912,12 +13951,12 @@
       <c r="Z91" s="13"/>
       <c r="AA91" s="13"/>
     </row>
-    <row r="92" spans="1:27" ht="171.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A92" s="60">
         <v>89</v>
       </c>
       <c r="B92" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C92" s="61" t="s">
         <v>17</v>
@@ -13926,19 +13965,19 @@
         <v>327</v>
       </c>
       <c r="E92" s="61" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F92" s="61" t="s">
-        <v>443</v>
+        <v>121</v>
       </c>
       <c r="G92" s="61" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H92" s="61" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I92" s="61" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J92" s="61" t="s">
         <v>49</v>
@@ -13965,12 +14004,12 @@
       <c r="Z92" s="13"/>
       <c r="AA92" s="13"/>
     </row>
-    <row r="93" spans="1:27" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" ht="171.75" x14ac:dyDescent="0.25">
       <c r="A93" s="60">
         <v>90</v>
       </c>
       <c r="B93" s="61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C93" s="61" t="s">
         <v>17</v>
@@ -13979,19 +14018,19 @@
         <v>327</v>
       </c>
       <c r="E93" s="61" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F93" s="61" t="s">
-        <v>121</v>
+        <v>443</v>
       </c>
       <c r="G93" s="61" t="s">
         <v>462</v>
       </c>
       <c r="H93" s="61" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I93" s="61" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="J93" s="61" t="s">
         <v>49</v>
@@ -14018,12 +14057,12 @@
       <c r="Z93" s="13"/>
       <c r="AA93" s="13"/>
     </row>
-    <row r="94" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A94" s="60">
         <v>91</v>
       </c>
       <c r="B94" s="61" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C94" s="61" t="s">
         <v>17</v>
@@ -14032,29 +14071,29 @@
         <v>327</v>
       </c>
       <c r="E94" s="61" t="s">
-        <v>465</v>
-      </c>
-      <c r="F94" s="60"/>
+        <v>463</v>
+      </c>
+      <c r="F94" s="61" t="s">
+        <v>121</v>
+      </c>
       <c r="G94" s="61" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H94" s="61" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I94" s="61" t="s">
-        <v>468</v>
-      </c>
-      <c r="J94" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="K94" s="61" t="s">
-        <v>560</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="J94" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="K94" s="60"/>
       <c r="L94" s="60" t="s">
         <v>50</v>
       </c>
       <c r="M94" s="62">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="N94" s="60"/>
       <c r="O94" s="60"/>
@@ -14076,7 +14115,7 @@
         <v>92</v>
       </c>
       <c r="B95" s="61" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C95" s="61" t="s">
         <v>17</v>
@@ -14085,23 +14124,23 @@
         <v>327</v>
       </c>
       <c r="E95" s="61" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F95" s="60"/>
       <c r="G95" s="61" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H95" s="61" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="I95" s="61" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="J95" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K95" s="61" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L95" s="60" t="s">
         <v>50</v>
@@ -14124,12 +14163,12 @@
       <c r="Z95" s="13"/>
       <c r="AA95" s="13"/>
     </row>
-    <row r="96" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A96" s="60">
         <v>93</v>
       </c>
       <c r="B96" s="61" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C96" s="61" t="s">
         <v>17</v>
@@ -14138,23 +14177,23 @@
         <v>327</v>
       </c>
       <c r="E96" s="61" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F96" s="60"/>
       <c r="G96" s="61" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H96" s="61" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="I96" s="61" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="J96" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K96" s="61" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L96" s="60" t="s">
         <v>50</v>
@@ -14177,12 +14216,12 @@
       <c r="Z96" s="13"/>
       <c r="AA96" s="13"/>
     </row>
-    <row r="97" spans="1:27" ht="72" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A97" s="60">
         <v>94</v>
       </c>
       <c r="B97" s="61" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C97" s="61" t="s">
         <v>17</v>
@@ -14191,24 +14230,24 @@
         <v>327</v>
       </c>
       <c r="E97" s="61" t="s">
-        <v>477</v>
-      </c>
-      <c r="F97" s="61" t="s">
-        <v>478</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="F97" s="60"/>
       <c r="G97" s="61" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H97" s="61" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="I97" s="61" t="s">
-        <v>480</v>
-      </c>
-      <c r="J97" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="K97" s="61"/>
+        <v>476</v>
+      </c>
+      <c r="J97" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="K97" s="61" t="s">
+        <v>562</v>
+      </c>
       <c r="L97" s="60" t="s">
         <v>50</v>
       </c>
@@ -14230,38 +14269,38 @@
       <c r="Z97" s="13"/>
       <c r="AA97" s="13"/>
     </row>
-    <row r="98" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" ht="72" x14ac:dyDescent="0.25">
       <c r="A98" s="60">
         <v>95</v>
       </c>
-      <c r="B98" s="60" t="s">
-        <v>439</v>
-      </c>
-      <c r="C98" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="D98" s="60" t="s">
+      <c r="B98" s="61" t="s">
+        <v>353</v>
+      </c>
+      <c r="C98" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="E98" s="60" t="s">
-        <v>491</v>
-      </c>
-      <c r="F98" s="60"/>
+      <c r="E98" s="61" t="s">
+        <v>477</v>
+      </c>
+      <c r="F98" s="61" t="s">
+        <v>478</v>
+      </c>
       <c r="G98" s="61" t="s">
-        <v>488</v>
-      </c>
-      <c r="H98" s="60" t="s">
-        <v>489</v>
-      </c>
-      <c r="I98" s="60" t="s">
-        <v>490</v>
-      </c>
-      <c r="J98" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="K98" s="61" t="s">
-        <v>563</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="H98" s="61" t="s">
+        <v>480</v>
+      </c>
+      <c r="I98" s="61" t="s">
+        <v>480</v>
+      </c>
+      <c r="J98" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="K98" s="61"/>
       <c r="L98" s="60" t="s">
         <v>50</v>
       </c>
@@ -14283,38 +14322,38 @@
       <c r="Z98" s="13"/>
       <c r="AA98" s="13"/>
     </row>
-    <row r="99" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A99" s="60">
         <v>96</v>
       </c>
       <c r="B99" s="60" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C99" s="60" t="s">
         <v>19</v>
       </c>
       <c r="D99" s="60" t="s">
-        <v>52</v>
+        <v>327</v>
       </c>
       <c r="E99" s="60" t="s">
-        <v>492</v>
-      </c>
-      <c r="F99" s="60" t="s">
-        <v>121</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="F99" s="60"/>
       <c r="G99" s="61" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H99" s="60" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="I99" s="60" t="s">
-        <v>494</v>
-      </c>
-      <c r="J99" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="K99" s="61"/>
+        <v>490</v>
+      </c>
+      <c r="J99" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="K99" s="61" t="s">
+        <v>563</v>
+      </c>
       <c r="L99" s="60" t="s">
         <v>50</v>
       </c>
@@ -14336,12 +14375,12 @@
       <c r="Z99" s="13"/>
       <c r="AA99" s="13"/>
     </row>
-    <row r="100" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A100" s="60">
         <v>97</v>
       </c>
       <c r="B100" s="60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C100" s="60" t="s">
         <v>19</v>
@@ -14350,19 +14389,19 @@
         <v>52</v>
       </c>
       <c r="E100" s="60" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F100" s="60" t="s">
-        <v>496</v>
-      </c>
-      <c r="G100" s="60" t="s">
-        <v>497</v>
+        <v>121</v>
+      </c>
+      <c r="G100" s="61" t="s">
+        <v>493</v>
       </c>
       <c r="H100" s="60" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="I100" s="60" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J100" s="60" t="s">
         <v>49</v>
@@ -14389,12 +14428,12 @@
       <c r="Z100" s="13"/>
       <c r="AA100" s="13"/>
     </row>
-    <row r="101" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A101" s="60">
         <v>98</v>
       </c>
       <c r="B101" s="60" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C101" s="60" t="s">
         <v>19</v>
@@ -14403,19 +14442,19 @@
         <v>52</v>
       </c>
       <c r="E101" s="60" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F101" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="G101" s="61" t="s">
-        <v>500</v>
+        <v>496</v>
+      </c>
+      <c r="G101" s="60" t="s">
+        <v>497</v>
       </c>
       <c r="H101" s="60" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="I101" s="60" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J101" s="60" t="s">
         <v>49</v>
@@ -14447,7 +14486,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="60" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C102" s="60" t="s">
         <v>19</v>
@@ -14456,19 +14495,19 @@
         <v>52</v>
       </c>
       <c r="E102" s="60" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F102" s="60" t="s">
         <v>121</v>
       </c>
       <c r="G102" s="61" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H102" s="60" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="I102" s="60" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J102" s="60" t="s">
         <v>49</v>
@@ -14500,7 +14539,7 @@
         <v>100</v>
       </c>
       <c r="B103" s="60" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C103" s="60" t="s">
         <v>19</v>
@@ -14509,19 +14548,19 @@
         <v>52</v>
       </c>
       <c r="E103" s="60" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F103" s="60" t="s">
         <v>121</v>
       </c>
       <c r="G103" s="61" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H103" s="60" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I103" s="60" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="J103" s="60" t="s">
         <v>49</v>
@@ -14553,7 +14592,7 @@
         <v>101</v>
       </c>
       <c r="B104" s="60" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C104" s="60" t="s">
         <v>19</v>
@@ -14562,19 +14601,19 @@
         <v>52</v>
       </c>
       <c r="E104" s="60" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F104" s="60" t="s">
         <v>121</v>
       </c>
       <c r="G104" s="61" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="H104" s="60" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="I104" s="60" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="J104" s="60" t="s">
         <v>49</v>
@@ -14606,7 +14645,7 @@
         <v>102</v>
       </c>
       <c r="B105" s="60" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C105" s="60" t="s">
         <v>19</v>
@@ -14615,19 +14654,19 @@
         <v>52</v>
       </c>
       <c r="E105" s="60" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F105" s="60" t="s">
         <v>121</v>
       </c>
       <c r="G105" s="61" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H105" s="60" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I105" s="60" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J105" s="60" t="s">
         <v>49</v>
@@ -14659,7 +14698,7 @@
         <v>103</v>
       </c>
       <c r="B106" s="60" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C106" s="60" t="s">
         <v>19</v>
@@ -14668,26 +14707,24 @@
         <v>52</v>
       </c>
       <c r="E106" s="60" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F106" s="60" t="s">
         <v>121</v>
       </c>
       <c r="G106" s="61" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H106" s="60" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I106" s="60" t="s">
-        <v>518</v>
-      </c>
-      <c r="J106" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="K106" s="61" t="s">
-        <v>564</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="J106" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="K106" s="61"/>
       <c r="L106" s="60" t="s">
         <v>50</v>
       </c>
@@ -14709,12 +14746,12 @@
       <c r="Z106" s="13"/>
       <c r="AA106" s="13"/>
     </row>
-    <row r="107" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A107" s="60">
         <v>104</v>
       </c>
       <c r="B107" s="60" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C107" s="60" t="s">
         <v>19</v>
@@ -14723,25 +14760,25 @@
         <v>52</v>
       </c>
       <c r="E107" s="60" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F107" s="60" t="s">
         <v>121</v>
       </c>
       <c r="G107" s="61" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H107" s="60" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I107" s="60" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="J107" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K107" s="61" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L107" s="60" t="s">
         <v>50</v>
@@ -14764,12 +14801,12 @@
       <c r="Z107" s="13"/>
       <c r="AA107" s="13"/>
     </row>
-    <row r="108" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A108" s="60">
         <v>105</v>
       </c>
       <c r="B108" s="60" t="s">
-        <v>655</v>
+        <v>453</v>
       </c>
       <c r="C108" s="60" t="s">
         <v>19</v>
@@ -14778,24 +14815,26 @@
         <v>52</v>
       </c>
       <c r="E108" s="60" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="F108" s="60" t="s">
         <v>121</v>
       </c>
       <c r="G108" s="61" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H108" s="60" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="I108" s="60" t="s">
-        <v>515</v>
-      </c>
-      <c r="J108" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="K108" s="61"/>
+        <v>521</v>
+      </c>
+      <c r="J108" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="K108" s="61" t="s">
+        <v>565</v>
+      </c>
       <c r="L108" s="60" t="s">
         <v>50</v>
       </c>
@@ -14817,33 +14856,33 @@
       <c r="Z108" s="13"/>
       <c r="AA108" s="13"/>
     </row>
-    <row r="109" spans="1:27" ht="72" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A109" s="60">
         <v>106</v>
       </c>
       <c r="B109" s="60" t="s">
-        <v>486</v>
+        <v>655</v>
       </c>
       <c r="C109" s="60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D109" s="60" t="s">
         <v>52</v>
       </c>
       <c r="E109" s="60" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F109" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="G109" s="60" t="s">
-        <v>525</v>
+      <c r="G109" s="61" t="s">
+        <v>523</v>
       </c>
       <c r="H109" s="60" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="I109" s="60" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="J109" s="60" t="s">
         <v>49</v>
@@ -14870,12 +14909,12 @@
       <c r="Z109" s="13"/>
       <c r="AA109" s="13"/>
     </row>
-    <row r="110" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" ht="72" x14ac:dyDescent="0.25">
       <c r="A110" s="60">
         <v>107</v>
       </c>
       <c r="B110" s="60" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C110" s="60" t="s">
         <v>21</v>
@@ -14884,19 +14923,19 @@
         <v>52</v>
       </c>
       <c r="E110" s="60" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F110" s="60" t="s">
         <v>121</v>
       </c>
       <c r="G110" s="60" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H110" s="60" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="I110" s="60" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="J110" s="60" t="s">
         <v>49</v>
@@ -14923,9 +14962,58 @@
       <c r="Z110" s="13"/>
       <c r="AA110" s="13"/>
     </row>
-    <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F111" s="12"/>
-      <c r="M111" s="59"/>
+    <row r="111" spans="1:27" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="A111" s="60">
+        <v>108</v>
+      </c>
+      <c r="B111" s="60" t="s">
+        <v>487</v>
+      </c>
+      <c r="C111" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E111" s="60" t="s">
+        <v>527</v>
+      </c>
+      <c r="F111" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="G111" s="60" t="s">
+        <v>528</v>
+      </c>
+      <c r="H111" s="60" t="s">
+        <v>529</v>
+      </c>
+      <c r="I111" s="60" t="s">
+        <v>529</v>
+      </c>
+      <c r="J111" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="K111" s="61"/>
+      <c r="L111" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="M111" s="62">
+        <v>44205</v>
+      </c>
+      <c r="N111" s="60"/>
+      <c r="O111" s="60"/>
+      <c r="P111" s="60"/>
+      <c r="Q111" s="60"/>
+      <c r="R111" s="60"/>
+      <c r="S111" s="60"/>
+      <c r="T111" s="60"/>
+      <c r="U111" s="13"/>
+      <c r="V111" s="13"/>
+      <c r="W111" s="13"/>
+      <c r="X111" s="13"/>
+      <c r="Y111" s="13"/>
+      <c r="Z111" s="13"/>
+      <c r="AA111" s="13"/>
     </row>
     <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F112" s="12"/>
@@ -14961,6 +15049,7 @@
     </row>
     <row r="120" spans="6:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F120" s="12"/>
+      <c r="M120" s="59"/>
     </row>
     <row r="121" spans="6:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F121" s="12"/>
@@ -17619,6 +17708,9 @@
     </row>
     <row r="1006" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F1006" s="12"/>
+    </row>
+    <row r="1007" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1007" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -17638,8 +17730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N1035"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+    <sheetView topLeftCell="A38" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17736,7 +17828,7 @@
         <v>288</v>
       </c>
       <c r="L2" s="84"/>
-      <c r="M2" s="106" t="s">
+      <c r="M2" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N2" s="86"/>
@@ -17772,7 +17864,7 @@
         <v>288</v>
       </c>
       <c r="L3" s="84"/>
-      <c r="M3" s="106" t="s">
+      <c r="M3" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N3" s="84"/>
@@ -17808,7 +17900,7 @@
         <v>315</v>
       </c>
       <c r="L4" s="84"/>
-      <c r="M4" s="106" t="s">
+      <c r="M4" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N4" s="84"/>
@@ -17844,7 +17936,7 @@
         <v>315</v>
       </c>
       <c r="L5" s="84"/>
-      <c r="M5" s="106" t="s">
+      <c r="M5" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N5" s="84"/>
@@ -17880,7 +17972,7 @@
         <v>288</v>
       </c>
       <c r="L6" s="84"/>
-      <c r="M6" s="106" t="s">
+      <c r="M6" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N6" s="84"/>
@@ -17916,7 +18008,7 @@
         <v>288</v>
       </c>
       <c r="L7" s="84"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N7" s="84"/>
@@ -17952,7 +18044,7 @@
         <v>315</v>
       </c>
       <c r="L8" s="84"/>
-      <c r="M8" s="106" t="s">
+      <c r="M8" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N8" s="84"/>
@@ -17988,7 +18080,7 @@
         <v>315</v>
       </c>
       <c r="L9" s="84"/>
-      <c r="M9" s="106" t="s">
+      <c r="M9" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N9" s="84"/>
@@ -18013,7 +18105,7 @@
       <c r="G10" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="89">
+      <c r="H10" s="88">
         <v>44287</v>
       </c>
       <c r="I10" s="84"/>
@@ -18024,7 +18116,7 @@
         <v>288</v>
       </c>
       <c r="L10" s="84"/>
-      <c r="M10" s="106" t="s">
+      <c r="M10" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N10" s="84"/>
@@ -18049,7 +18141,7 @@
       <c r="G11" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="89">
+      <c r="H11" s="88">
         <v>44287</v>
       </c>
       <c r="I11" s="84"/>
@@ -18060,7 +18152,7 @@
         <v>288</v>
       </c>
       <c r="L11" s="84"/>
-      <c r="M11" s="106" t="s">
+      <c r="M11" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N11" s="84"/>
@@ -18087,7 +18179,7 @@
       <c r="G12" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="89">
+      <c r="H12" s="88">
         <v>44287</v>
       </c>
       <c r="I12" s="84"/>
@@ -18098,7 +18190,7 @@
         <v>288</v>
       </c>
       <c r="L12" s="84"/>
-      <c r="M12" s="106" t="s">
+      <c r="M12" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N12" s="84"/>
@@ -18125,7 +18217,7 @@
       <c r="G13" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="89">
+      <c r="H13" s="88">
         <v>44287</v>
       </c>
       <c r="I13" s="84"/>
@@ -18136,7 +18228,7 @@
         <v>315</v>
       </c>
       <c r="L13" s="84"/>
-      <c r="M13" s="106" t="s">
+      <c r="M13" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N13" s="84"/>
@@ -18163,7 +18255,7 @@
       <c r="G14" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="89">
+      <c r="H14" s="88">
         <v>44348</v>
       </c>
       <c r="I14" s="84"/>
@@ -18174,7 +18266,7 @@
         <v>315</v>
       </c>
       <c r="L14" s="84"/>
-      <c r="M14" s="106" t="s">
+      <c r="M14" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N14" s="84"/>
@@ -18201,7 +18293,7 @@
       <c r="G15" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="89">
+      <c r="H15" s="88">
         <v>44348</v>
       </c>
       <c r="I15" s="84"/>
@@ -18212,7 +18304,7 @@
         <v>315</v>
       </c>
       <c r="L15" s="84"/>
-      <c r="M15" s="106" t="s">
+      <c r="M15" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N15" s="84"/>
@@ -18239,7 +18331,7 @@
       <c r="G16" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="89">
+      <c r="H16" s="88">
         <v>44348</v>
       </c>
       <c r="I16" s="84"/>
@@ -18250,7 +18342,7 @@
         <v>315</v>
       </c>
       <c r="L16" s="84"/>
-      <c r="M16" s="106" t="s">
+      <c r="M16" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N16" s="84"/>
@@ -18275,7 +18367,7 @@
       <c r="G17" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="89">
+      <c r="H17" s="88">
         <v>44348</v>
       </c>
       <c r="I17" s="84"/>
@@ -18286,7 +18378,7 @@
         <v>315</v>
       </c>
       <c r="L17" s="84"/>
-      <c r="M17" s="106" t="s">
+      <c r="M17" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N17" s="84"/>
@@ -18311,7 +18403,7 @@
       <c r="G18" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="89">
+      <c r="H18" s="88">
         <v>44348</v>
       </c>
       <c r="I18" s="84"/>
@@ -18322,7 +18414,7 @@
         <v>315</v>
       </c>
       <c r="L18" s="84"/>
-      <c r="M18" s="106" t="s">
+      <c r="M18" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N18" s="84"/>
@@ -18347,7 +18439,7 @@
       <c r="G19" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="89">
+      <c r="H19" s="88">
         <v>44348</v>
       </c>
       <c r="I19" s="84"/>
@@ -18358,7 +18450,7 @@
         <v>288</v>
       </c>
       <c r="L19" s="84"/>
-      <c r="M19" s="106" t="s">
+      <c r="M19" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N19" s="84"/>
@@ -18383,7 +18475,7 @@
       <c r="G20" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="89">
+      <c r="H20" s="88">
         <v>44348</v>
       </c>
       <c r="I20" s="84"/>
@@ -18394,7 +18486,7 @@
         <v>288</v>
       </c>
       <c r="L20" s="84"/>
-      <c r="M20" s="106" t="s">
+      <c r="M20" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N20" s="84"/>
@@ -18419,7 +18511,7 @@
       <c r="G21" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="89">
+      <c r="H21" s="88">
         <v>44348</v>
       </c>
       <c r="I21" s="84"/>
@@ -18430,7 +18522,7 @@
         <v>288</v>
       </c>
       <c r="L21" s="84"/>
-      <c r="M21" s="106" t="s">
+      <c r="M21" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N21" s="84"/>
@@ -18455,7 +18547,7 @@
       <c r="G22" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="89">
+      <c r="H22" s="88">
         <v>44348</v>
       </c>
       <c r="I22" s="84"/>
@@ -18466,7 +18558,7 @@
         <v>288</v>
       </c>
       <c r="L22" s="84"/>
-      <c r="M22" s="106" t="s">
+      <c r="M22" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N22" s="84"/>
@@ -18491,7 +18583,7 @@
       <c r="G23" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="89">
+      <c r="H23" s="88">
         <v>44348</v>
       </c>
       <c r="I23" s="84"/>
@@ -18502,7 +18594,7 @@
         <v>315</v>
       </c>
       <c r="L23" s="84"/>
-      <c r="M23" s="106" t="s">
+      <c r="M23" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N23" s="84"/>
@@ -18527,7 +18619,7 @@
       <c r="G24" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="89">
+      <c r="H24" s="88">
         <v>44348</v>
       </c>
       <c r="I24" s="84"/>
@@ -18538,7 +18630,7 @@
         <v>315</v>
       </c>
       <c r="L24" s="84"/>
-      <c r="M24" s="106" t="s">
+      <c r="M24" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N24" s="84"/>
@@ -18563,7 +18655,7 @@
       <c r="G25" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="89">
+      <c r="H25" s="88">
         <v>44348</v>
       </c>
       <c r="I25" s="84"/>
@@ -18574,7 +18666,7 @@
         <v>288</v>
       </c>
       <c r="L25" s="84"/>
-      <c r="M25" s="106" t="s">
+      <c r="M25" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N25" s="84"/>
@@ -18599,7 +18691,7 @@
       <c r="G26" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="89">
+      <c r="H26" s="88">
         <v>44348</v>
       </c>
       <c r="I26" s="84"/>
@@ -18610,7 +18702,7 @@
         <v>288</v>
       </c>
       <c r="L26" s="84"/>
-      <c r="M26" s="106" t="s">
+      <c r="M26" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N26" s="84"/>
@@ -18635,7 +18727,7 @@
       <c r="G27" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="89">
+      <c r="H27" s="88">
         <v>44348</v>
       </c>
       <c r="I27" s="84"/>
@@ -18646,7 +18738,7 @@
         <v>288</v>
       </c>
       <c r="L27" s="84"/>
-      <c r="M27" s="106" t="s">
+      <c r="M27" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N27" s="84"/>
@@ -18671,7 +18763,7 @@
       <c r="G28" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="89">
+      <c r="H28" s="88">
         <v>44378</v>
       </c>
       <c r="I28" s="84"/>
@@ -18682,7 +18774,7 @@
         <v>315</v>
       </c>
       <c r="L28" s="84"/>
-      <c r="M28" s="106" t="s">
+      <c r="M28" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N28" s="84"/>
@@ -18707,7 +18799,7 @@
       <c r="G29" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="89">
+      <c r="H29" s="88">
         <v>44378</v>
       </c>
       <c r="I29" s="84"/>
@@ -18718,7 +18810,7 @@
         <v>315</v>
       </c>
       <c r="L29" s="84"/>
-      <c r="M29" s="106" t="s">
+      <c r="M29" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N29" s="84"/>
@@ -18743,7 +18835,7 @@
       <c r="G30" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H30" s="89">
+      <c r="H30" s="88">
         <v>44378</v>
       </c>
       <c r="I30" s="84"/>
@@ -18754,7 +18846,7 @@
         <v>315</v>
       </c>
       <c r="L30" s="84"/>
-      <c r="M30" s="106" t="s">
+      <c r="M30" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N30" s="84"/>
@@ -18779,7 +18871,7 @@
       <c r="G31" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H31" s="89">
+      <c r="H31" s="88">
         <v>44378</v>
       </c>
       <c r="I31" s="84"/>
@@ -18790,7 +18882,7 @@
         <v>315</v>
       </c>
       <c r="L31" s="84"/>
-      <c r="M31" s="106" t="s">
+      <c r="M31" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N31" s="84"/>
@@ -18815,7 +18907,7 @@
       <c r="G32" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H32" s="89">
+      <c r="H32" s="88">
         <v>44378</v>
       </c>
       <c r="I32" s="84"/>
@@ -18826,7 +18918,7 @@
         <v>315</v>
       </c>
       <c r="L32" s="84"/>
-      <c r="M32" s="106" t="s">
+      <c r="M32" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N32" s="84"/>
@@ -18851,7 +18943,7 @@
       <c r="G33" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H33" s="89">
+      <c r="H33" s="88">
         <v>44409</v>
       </c>
       <c r="I33" s="84"/>
@@ -18862,7 +18954,7 @@
         <v>315</v>
       </c>
       <c r="L33" s="84"/>
-      <c r="M33" s="106" t="s">
+      <c r="M33" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N33" s="84"/>
@@ -18887,7 +18979,7 @@
       <c r="G34" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H34" s="90">
+      <c r="H34" s="89">
         <v>44440</v>
       </c>
       <c r="I34" s="84"/>
@@ -18898,7 +18990,7 @@
         <v>287</v>
       </c>
       <c r="L34" s="84"/>
-      <c r="M34" s="106" t="s">
+      <c r="M34" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N34" s="84"/>
@@ -18923,7 +19015,7 @@
       <c r="G35" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H35" s="90">
+      <c r="H35" s="89">
         <v>44440</v>
       </c>
       <c r="I35" s="84"/>
@@ -18934,7 +19026,7 @@
         <v>287</v>
       </c>
       <c r="L35" s="84"/>
-      <c r="M35" s="106" t="s">
+      <c r="M35" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N35" s="84"/>
@@ -18959,7 +19051,7 @@
       <c r="G36" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H36" s="90">
+      <c r="H36" s="89">
         <v>44440</v>
       </c>
       <c r="I36" s="84"/>
@@ -18970,7 +19062,7 @@
         <v>287</v>
       </c>
       <c r="L36" s="84"/>
-      <c r="M36" s="106" t="s">
+      <c r="M36" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N36" s="84"/>
@@ -18995,7 +19087,7 @@
       <c r="G37" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="H37" s="90">
+      <c r="H37" s="89">
         <v>44440</v>
       </c>
       <c r="I37" s="84"/>
@@ -19006,7 +19098,7 @@
         <v>287</v>
       </c>
       <c r="L37" s="84"/>
-      <c r="M37" s="106" t="s">
+      <c r="M37" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N37" s="84"/>
@@ -19033,7 +19125,7 @@
       <c r="G38" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="H38" s="90">
+      <c r="H38" s="89">
         <v>44440</v>
       </c>
       <c r="I38" s="84"/>
@@ -19044,7 +19136,7 @@
         <v>288</v>
       </c>
       <c r="L38" s="84"/>
-      <c r="M38" s="106" t="s">
+      <c r="M38" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N38" s="84"/>
@@ -19071,7 +19163,7 @@
       <c r="G39" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="H39" s="90">
+      <c r="H39" s="89">
         <v>44440</v>
       </c>
       <c r="I39" s="84"/>
@@ -19082,25 +19174,45 @@
         <v>315</v>
       </c>
       <c r="L39" s="84"/>
-      <c r="M39" s="106" t="s">
+      <c r="M39" s="93" t="s">
         <v>669</v>
       </c>
       <c r="N39" s="84"/>
     </row>
-    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="85"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="86"/>
+    <row r="40" spans="1:14" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="85">
+        <v>39</v>
+      </c>
+      <c r="B40" s="82" t="s">
+        <v>676</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="D40" s="86" t="s">
+        <v>677</v>
+      </c>
       <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="87"/>
+      <c r="F40" s="61" t="s">
+        <v>678</v>
+      </c>
+      <c r="G40" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="89">
+        <v>44470</v>
+      </c>
       <c r="I40" s="84"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="84"/>
+      <c r="J40" s="83" t="s">
+        <v>568</v>
+      </c>
+      <c r="K40" s="86" t="s">
+        <v>288</v>
+      </c>
       <c r="L40" s="84"/>
-      <c r="M40" s="84"/>
+      <c r="M40" s="93" t="s">
+        <v>669</v>
+      </c>
       <c r="N40" s="84"/>
     </row>
     <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -20118,11 +20230,12 @@
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" display="https://drive.google.com/drive/folders/1cK1bqin2ngqxdbP30m70ipZYYlw5PZty?usp=sharing" xr:uid="{667A8B30-8F99-4DFB-B5D4-B1BC7E965231}"/>
     <hyperlink ref="M3:M39" r:id="rId2" display="https://drive.google.com/drive/folders/1cK1bqin2ngqxdbP30m70ipZYYlw5PZty?usp=sharing" xr:uid="{79C19927-964E-4B4E-BAFF-C8F19F3ADAE4}"/>
+    <hyperlink ref="M40" r:id="rId3" display="https://drive.google.com/drive/folders/1cK1bqin2ngqxdbP30m70ipZYYlw5PZty?usp=sharing" xr:uid="{C580357E-92FD-4BE0-836F-15E70583983B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -20132,7 +20245,7 @@
   <dimension ref="A1:Z1007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20144,13 +20257,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17"/>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="98" t="s">
         <v>286</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
@@ -20350,7 +20463,7 @@
       <c r="Y5" s="18"/>
       <c r="Z5" s="18"/>
     </row>
-    <row r="6" spans="1:26" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="87" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>3</v>
       </c>
@@ -20402,7 +20515,7 @@
       <c r="Y6" s="18"/>
       <c r="Z6" s="18"/>
     </row>
-    <row r="7" spans="1:26" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="87" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>4</v>
       </c>
@@ -20457,7 +20570,7 @@
       <c r="Y7" s="18"/>
       <c r="Z7" s="18"/>
     </row>
-    <row r="8" spans="1:26" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="87" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>5</v>
       </c>
@@ -20509,7 +20622,7 @@
       <c r="Y8" s="18"/>
       <c r="Z8" s="18"/>
     </row>
-    <row r="9" spans="1:26" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="87" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>6</v>
       </c>
@@ -20526,15 +20639,14 @@
         <v>0</v>
       </c>
       <c r="E9" s="76">
-        <f>COUNTIFS('Bug Report'!$C$2:$C$40,'Defect Serverity Distribution'!$B9,'Bug Report'!$L$2:$L$40,E$3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="21">
         <v>5</v>
       </c>
       <c r="G9" s="23">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" s="76">
         <f>COUNTIFS('Bug Report'!$C$2:$C$40,'Defect Serverity Distribution'!$B9,'Bug Report'!$J$2:$J$40,H$3)</f>
@@ -20542,7 +20654,7 @@
       </c>
       <c r="I9" s="21">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -20562,7 +20674,7 @@
       <c r="Y9" s="18"/>
       <c r="Z9" s="18"/>
     </row>
-    <row r="10" spans="1:26" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="87" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>7</v>
       </c>
@@ -20617,7 +20729,7 @@
       <c r="Y10" s="18"/>
       <c r="Z10" s="18"/>
     </row>
-    <row r="11" spans="1:26" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="87" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>8</v>
       </c>
@@ -20669,7 +20781,7 @@
       <c r="Y11" s="18"/>
       <c r="Z11" s="18"/>
     </row>
-    <row r="12" spans="1:26" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="87" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>9</v>
       </c>
@@ -20739,7 +20851,7 @@
       </c>
       <c r="E13" s="19">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" s="19">
         <f t="shared" si="6"/>
@@ -20747,7 +20859,7 @@
       </c>
       <c r="G13" s="19">
         <f t="shared" si="6"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13" s="19">
         <f t="shared" si="6"/>
@@ -20755,7 +20867,7 @@
       </c>
       <c r="I13" s="19">
         <f t="shared" si="6"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
@@ -48620,8 +48732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -48635,76 +48747,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="100"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="101"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="100" t="s">
         <v>292</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="101" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="102" t="s">
         <v>293</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="99" t="s">
+      <c r="D2" s="103"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="100" t="s">
         <v>294</v>
       </c>
-      <c r="G2" s="100"/>
-      <c r="H2" s="101" t="s">
+      <c r="G2" s="101"/>
+      <c r="H2" s="102" t="s">
         <v>295</v>
       </c>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="100"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="100" t="s">
         <v>296</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="101" t="s">
+      <c r="B3" s="101"/>
+      <c r="C3" s="102" t="s">
         <v>297</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="99" t="s">
+      <c r="D3" s="103"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="100" t="s">
         <v>298</v>
       </c>
-      <c r="G3" s="100"/>
-      <c r="H3" s="101" t="s">
+      <c r="G3" s="101"/>
+      <c r="H3" s="102" t="s">
         <v>299</v>
       </c>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="100"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="101"/>
     </row>
     <row r="4" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="104" t="s">
         <v>300</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="101"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
@@ -48731,7 +48843,7 @@
       </c>
       <c r="C6" s="30">
         <f>E18/J18</f>
-        <v>0.6607142857142857</v>
+        <v>0.65486725663716816</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -48742,7 +48854,7 @@
       <c r="J6" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="K6" s="92">
+      <c r="K6" s="91">
         <v>44470</v>
       </c>
     </row>
@@ -48817,7 +48929,7 @@
         <f>'Function list'!B2</f>
         <v>F011</v>
       </c>
-      <c r="C9" s="91" t="str">
+      <c r="C9" s="90" t="str">
         <f>'Function list'!C2</f>
         <v>Phân trang tìm kiếm</v>
       </c>
@@ -48859,7 +48971,7 @@
         <f>'Function list'!B3</f>
         <v>F012</v>
       </c>
-      <c r="C10" s="91" t="str">
+      <c r="C10" s="90" t="str">
         <f>'Function list'!C3</f>
         <v>Chọn sản phẩm vào giỏ hàng</v>
       </c>
@@ -48893,7 +49005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="88" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>3</v>
       </c>
@@ -48901,7 +49013,7 @@
         <f>'Function list'!B4</f>
         <v>F013</v>
       </c>
-      <c r="C11" s="91" t="str">
+      <c r="C11" s="90" t="str">
         <f>'Function list'!C4</f>
         <v>Quản lý giỏ hàng</v>
       </c>
@@ -48935,7 +49047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="88" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="87" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>4</v>
       </c>
@@ -48943,7 +49055,7 @@
         <f>'Function list'!B5</f>
         <v>F014</v>
       </c>
-      <c r="C12" s="91" t="str">
+      <c r="C12" s="90" t="str">
         <f>'Function list'!C5</f>
         <v>Sử dụng một thư viện chuyên về
 authentication</v>
@@ -48979,7 +49091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="88" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>5</v>
       </c>
@@ -48987,7 +49099,7 @@
         <f>'Function list'!B6</f>
         <v>F015</v>
       </c>
-      <c r="C13" s="91" t="str">
+      <c r="C13" s="90" t="str">
         <f>'Function list'!C6</f>
         <v>Đăng ký tài khoản</v>
       </c>
@@ -49021,7 +49133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="88" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>6</v>
       </c>
@@ -49029,18 +49141,18 @@
         <f>'Function list'!B7</f>
         <v>F016</v>
       </c>
-      <c r="C14" s="91" t="str">
+      <c r="C14" s="90" t="str">
         <f>'Function list'!C7</f>
         <v>Đăng nhập hệ thống</v>
       </c>
       <c r="D14" s="38">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="38">
         <v>18</v>
       </c>
       <c r="F14" s="38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" s="38">
         <f>COUNTIFS('Test cases'!$C$3:$C$6,'Test summary report'!$B14,'Test cases'!$J$3:$J$6,'Test summary report'!$G$8)</f>
@@ -49056,14 +49168,14 @@
       </c>
       <c r="J14" s="38">
         <f>SUM('Test summary report'!$E14:$I14)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14" s="39">
         <f>'Test summary report'!$D14/'Test summary report'!$J14</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="88" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="87" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>7</v>
       </c>
@@ -49071,7 +49183,7 @@
         <f>'Function list'!B8</f>
         <v>F017</v>
       </c>
-      <c r="C15" s="91" t="str">
+      <c r="C15" s="90" t="str">
         <f>'Function list'!C8</f>
         <v>Ngăn cấm người chưa đăng nhập sử
 dụng các chức năng bắt buộc đăng
@@ -49107,7 +49219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="88" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="87" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>8</v>
       </c>
@@ -49115,7 +49227,7 @@
         <f>'Function list'!B9</f>
         <v>F018</v>
       </c>
-      <c r="C16" s="91" t="str">
+      <c r="C16" s="90" t="str">
         <f>'Function list'!C9</f>
         <v>Quên mật khẩu và làm mới mật khẩu
 bằng email</v>
@@ -49150,7 +49262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="88" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" s="87" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>9</v>
       </c>
@@ -49158,7 +49270,7 @@
         <f>'Function list'!B10</f>
         <v>F019</v>
       </c>
-      <c r="C17" s="91" t="str">
+      <c r="C17" s="90" t="str">
         <f>'Function list'!C10</f>
         <v>Cập nhật thông tin cá nhân của tài
 khoản</v>
@@ -49202,7 +49314,7 @@
       </c>
       <c r="D18" s="40">
         <f t="shared" ref="D18:J18" si="0">SUM(D9:D17)</f>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E18" s="40">
         <f t="shared" si="0"/>
@@ -49210,7 +49322,7 @@
       </c>
       <c r="F18" s="40">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G18" s="40">
         <f t="shared" si="0"/>
@@ -49226,7 +49338,7 @@
       </c>
       <c r="J18" s="40">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K18" s="41">
         <f>C5</f>
